--- a/biology/Zoologie/Allactoneura_veiti/Allactoneura_veiti.xlsx
+++ b/biology/Zoologie/Allactoneura_veiti/Allactoneura_veiti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Allactoneura veiti est une espèce fossile de mouches de la famille des Mycetophilidae (littéralement « amis des champignons »).
 </t>
@@ -511,15 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Allactoneura veiti est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981)[1],[2]. 
-Fossiles
-Le spécimen holotype R 878  vient de la collection Mieg, collection conservée au Musée d'histoire naturelle de Bâle[3]. Ce spécimen provient du gisement de Kleinkembs (ou Kleinkems) oligocène[3], dans le Bade-Wurtemberg, sur la rive droite du Rhin.
-Confirmation genre
-en 2021 le genre est confirmé par Sarah Siqueira Oliveira et Dalton De Souza Amorim[4],[2].
-Étymologie
-L'épithète spécifique veiti signifie en latin « interdit ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Allactoneura veiti est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981),. 
 </t>
         </is>
       </c>
@@ -545,19 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractères
-Diagnose de Nicolas Théobald en 1937[1],[note 1]
-« Petit insecte, corps brun noirâtre, pattes claires. tête manque. thorax ovale, un peu renflé sur le dos. Abdomen grêle, 4 segments, le dernier allongé et renflé, porte un forceps développé (♂), les autres segments plus hauts que longs. pattes fortes; hanches allongées; fémurs renflés, portent 4-5 séries de poils fins; tibias avec 4-5 lignes de poils raides, 5-6 longs cils irrégulièrement répartis sur la face postérieure, et cils à l'extrémité; tarse grêle, velu, quelques cils moins larges que ceux du tibia. Ailes courtes, relevées sur le dos et se recouvrant en partie; nervation en partie effacée; C marginale, garnie de microtriches, se termine au sommet; Sc se termine au milieu du bord antérieur; R se termine vers le quart extérieur; Rs simple, relié à M par une nervure transversale, M se bifurque presque en ce point, Cu bifurquée dès la base de l'aile[1]. »
-Dimensions
-La longueur du corps est de 2,75 mm et la longueur des ailes est de 2,5 mm[5].
-Affinités
-La nervation des ailes est celle du genre Allactoneura De Meijere 1907.
-L'armature des pattes est identique[5].
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le spécimen holotype R 878  vient de la collection Mieg, collection conservée au Musée d'histoire naturelle de Bâle. Ce spécimen provient du gisement de Kleinkembs (ou Kleinkems) oligocène, dans le Bade-Wurtemberg, sur la rive droite du Rhin.
 </t>
         </is>
       </c>
@@ -583,13 +590,202 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Confirmation genre</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">en 2021 le genre est confirmé par Sarah Siqueira Oliveira et Dalton De Souza Amorim,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Allactoneura_veiti</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Allactoneura_veiti</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique veiti signifie en latin « interdit ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Allactoneura_veiti</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Allactoneura_veiti</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diagnose de Nicolas Théobald en 1937,[note 1]
+« Petit insecte, corps brun noirâtre, pattes claires. tête manque. thorax ovale, un peu renflé sur le dos. Abdomen grêle, 4 segments, le dernier allongé et renflé, porte un forceps développé (♂), les autres segments plus hauts que longs. pattes fortes; hanches allongées; fémurs renflés, portent 4-5 séries de poils fins; tibias avec 4-5 lignes de poils raides, 5-6 longs cils irrégulièrement répartis sur la face postérieure, et cils à l'extrémité; tarse grêle, velu, quelques cils moins larges que ceux du tibia. Ailes courtes, relevées sur le dos et se recouvrant en partie; nervation en partie effacée; C marginale, garnie de microtriches, se termine au sommet; Sc se termine au milieu du bord antérieur; R se termine vers le quart extérieur; Rs simple, relié à M par une nervure transversale, M se bifurque presque en ce point, Cu bifurquée dès la base de l'aile. »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Allactoneura_veiti</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Allactoneura_veiti</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur du corps est de 2,75 mm et la longueur des ailes est de 2,5 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Allactoneura_veiti</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Allactoneura_veiti</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La nervation des ailes est celle du genre Allactoneura De Meijere 1907.
+L'armature des pattes est identique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Allactoneura_veiti</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Allactoneura_veiti</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allactoneura cincta actuel vit à Java et à Ceylan [5].
-Nicolas Théobald connaissait le genre Allactoneura par l'espèce actuelle A. cincta De Meijere de Java et de Ceylan.[5].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allactoneura cincta actuel vit à Java et à Ceylan .
+Nicolas Théobald connaissait le genre Allactoneura par l'espèce actuelle A. cincta De Meijere de Java et de Ceylan..
 </t>
         </is>
       </c>
